--- a/data/trans_dic/CONS_PSI-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_PSI-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>32,38%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,58; 19,19</t>
+          <t>11,79; 18,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 29,52</t>
+          <t>13,49; 22,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 21,73</t>
+          <t>11,14; 16,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,41; 13,81</t>
+          <t>12,7; 28,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,84; 32,73</t>
+          <t>27,01; 34,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,91; 50,47</t>
+          <t>32,16; 39,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,43; 37,93</t>
+          <t>23,9; 31,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,08; 27,29</t>
+          <t>35,03; 52,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,49; 25,3</t>
+          <t>21,74; 26,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,45; 38,56</t>
+          <t>25,99; 32,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,6; 31,2</t>
+          <t>19,05; 24,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 20,9</t>
+          <t>26,42; 38,87</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>18,13%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 10,33</t>
+          <t>7,99; 10,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,89; 16,08</t>
+          <t>3,7; 8,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 8,53</t>
+          <t>6,84; 9,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,63; 9,66</t>
+          <t>10,51; 15,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,49; 19,27</t>
+          <t>13,81; 17,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,28; 26,67</t>
+          <t>7,8; 15,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 15,2</t>
+          <t>14,29; 17,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,58; 16,17</t>
+          <t>20,47; 26,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 14,27</t>
+          <t>11,29; 13,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,17; 20,07</t>
+          <t>6,85; 11,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,48; 11,54</t>
+          <t>11,02; 13,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,79; 12,57</t>
+          <t>15,99; 20,02</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>10,05%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,11%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>16,59%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,95%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,01%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>13,69%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,55%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>7,19%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,35</t>
+          <t>4,71; 8,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 13,01</t>
+          <t>5,05; 9,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,01</t>
+          <t>4,32; 7,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,94</t>
+          <t>7,7; 12,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 12,99</t>
+          <t>6,06; 9,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,73; 19,86</t>
+          <t>6,88; 11,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,26</t>
+          <t>7,53; 12,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,67</t>
+          <t>13,77; 19,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 10,44</t>
+          <t>5,88; 8,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 16,04</t>
+          <t>6,49; 9,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 8,95</t>
+          <t>6,32; 9,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 8,38</t>
+          <t>11,99; 15,87</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 11,05</t>
+          <t>8,29; 10,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,17; 15,14</t>
+          <t>5,48; 9,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 9,82</t>
+          <t>7,37; 9,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 9,32</t>
+          <t>11,38; 15,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 19,73</t>
+          <t>14,72; 17,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,42; 26,13</t>
+          <t>11,89; 18,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 18,69</t>
+          <t>15,02; 17,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 16,22</t>
+          <t>21,52; 26,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,21; 15,05</t>
+          <t>11,94; 13,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,16; 20,39</t>
+          <t>9,19; 13,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,47; 14,27</t>
+          <t>11,68; 13,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 12,64</t>
+          <t>17,29; 20,45</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos psicofármacos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13198</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40001</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>29881</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19511</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>39239</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>140941</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>75553</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>51065</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>52437</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>180942</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>105434</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>70576</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10387; 16546</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30741; 50415</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24043; 36188</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12513; 28438</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>34503; 43849</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>126958; 157845</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65410; 85205</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41837; 62139</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>46924; 57969</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>161780; 201576</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>93223; 117712</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>57577; 84717</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>41664</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>95033</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>70246</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46653</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>66269</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>174597</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>140621</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>82255</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>107933</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>269629</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>210867</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>128908</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36239; 47365</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>52176; 125553</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>58989; 82695</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37507; 56263</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>59626; 73418</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>108045; 219018</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>124214; 156230</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>72526; 92920</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>99934; 116377</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>191453; 331025</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>190838; 232287</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>113730; 142350</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9372</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33017</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22433</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22569</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14779</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>38754</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39351</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46885</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24151</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71771</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>61784</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>69454</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7136; 12278</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23225; 44930</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16343; 30078</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17300; 29121</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11776; 18016</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30489; 50632</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31376; 50629</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38932; 56252</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20338; 28503</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>58623; 87880</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>50271; 74610</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>60820; 80496</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>64234</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>168050</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>122559</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>88733</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>120287</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>354292</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>255525</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>180205</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>184521</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>522343</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>378084</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>268938</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>57450; 71331</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>114912; 202475</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>107354; 137986</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>77419; 103036</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>110962; 129340</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>264335; 410640</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>234203; 278089</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>162762; 198136</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>172705; 194872</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>397196; 587428</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>352138; 406751</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>248327; 293718</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_PSI-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_PSI-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos psicofármacos</t>
+          <t>Consumo de medicamentos psicofármacos (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1262,7 +1262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos psicofármacos</t>
+          <t>Consumo de medicamentos psicofármacos (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_PSI-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_PSI-Estudios-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,79; 18,79</t>
+          <t>10,85; 17,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,49; 22,13</t>
+          <t>13,21; 22,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 28,85</t>
+          <t>13,13; 29,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,01; 34,33</t>
+          <t>27,55; 34,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,16; 39,99</t>
+          <t>31,94; 39,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,03; 52,04</t>
+          <t>35,21; 52,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,74; 26,86</t>
+          <t>21,44; 26,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,99; 32,38</t>
+          <t>26,01; 32,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 38,87</t>
+          <t>26,47; 38,55</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,99; 10,44</t>
+          <t>7,81; 10,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,91</t>
+          <t>3,77; 8,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,51; 15,77</t>
+          <t>10,57; 15,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,81; 17,0</t>
+          <t>13,46; 16,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,8</t>
+          <t>7,58; 15,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,47; 26,23</t>
+          <t>19,81; 26,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,29; 13,15</t>
+          <t>10,91; 12,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,84</t>
+          <t>6,92; 11,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 20,02</t>
+          <t>16,24; 20,29</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,1</t>
+          <t>4,74; 8,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 9,77</t>
+          <t>5,16; 9,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,97</t>
+          <t>7,68; 13,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 9,28</t>
+          <t>6,3; 9,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,42</t>
+          <t>6,54; 11,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,77; 19,9</t>
+          <t>13,52; 19,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 8,24</t>
+          <t>6,06; 8,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,73</t>
+          <t>6,6; 9,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,99; 15,87</t>
+          <t>11,71; 15,7</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 10,29</t>
+          <t>7,92; 9,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,66</t>
+          <t>5,34; 9,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,38; 15,15</t>
+          <t>11,25; 15,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 17,16</t>
+          <t>14,28; 16,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,46</t>
+          <t>11,74; 18,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,52; 26,2</t>
+          <t>21,57; 26,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,94; 13,47</t>
+          <t>11,51; 13,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,59</t>
+          <t>9,72; 13,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,45</t>
+          <t>17,09; 20,34</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13198</t>
+          <t>11432</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39239</t>
+          <t>37308</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>52437</t>
+          <t>48740</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1520,12 +1520,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10387; 16546</t>
+          <t>8953; 14078</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30741; 50415</t>
+          <t>30090; 50146</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12513; 28438</t>
+          <t>12944; 28942</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34503; 43849</t>
+          <t>33465; 42104</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>126958; 157845</t>
+          <t>126094; 157368</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41837; 62139</t>
+          <t>42044; 62790</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46924; 57969</t>
+          <t>43731; 54030</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>161780; 201576</t>
+          <t>161941; 200320</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>57577; 84717</t>
+          <t>57692; 84024</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41664</t>
+          <t>41262</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66269</t>
+          <t>66341</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>107933</t>
+          <t>107603</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36239; 47365</t>
+          <t>36063; 46689</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52176; 125553</t>
+          <t>53148; 125837</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37507; 56263</t>
+          <t>37736; 55555</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59626; 73418</t>
+          <t>59829; 73093</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>108045; 219018</t>
+          <t>105030; 219093</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1763,17 +1763,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72526; 92920</t>
+          <t>70193; 93776</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>99934; 116377</t>
+          <t>98834; 116109</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>191453; 331025</t>
+          <t>193439; 327167</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>113730; 142350</t>
+          <t>115484; 144288</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9372</t>
+          <t>11044</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14779</t>
+          <t>17675</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24151</t>
+          <t>28719</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7136; 12278</t>
+          <t>8323; 14302</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23225; 44930</t>
+          <t>23707; 45839</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17300; 29121</t>
+          <t>17243; 29983</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11776; 18016</t>
+          <t>14375; 21537</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30489; 50632</t>
+          <t>29002; 49085</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38932; 56252</t>
+          <t>38225; 55308</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20338; 28503</t>
+          <t>24454; 33593</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>58623; 87880</t>
+          <t>59637; 87792</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>60820; 80496</t>
+          <t>59420; 79659</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>64234</t>
+          <t>63738</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>120287</t>
+          <t>121324</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>184521</t>
+          <t>185062</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>57450; 71331</t>
+          <t>57016; 70733</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>114912; 202475</t>
+          <t>112068; 202048</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,17 +2159,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>77419; 103036</t>
+          <t>76519; 103897</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>110962; 129340</t>
+          <t>113341; 130388</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>264335; 410640</t>
+          <t>261136; 404852</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2179,17 +2179,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>162762; 198136</t>
+          <t>163178; 198599</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>172705; 194872</t>
+          <t>174206; 197349</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>397196; 587428</t>
+          <t>419819; 586837</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>248327; 293718</t>
+          <t>245520; 292202</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/CONS_PSI-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_PSI-Estudios-trans_dic.xlsx
@@ -569,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -657,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>16,97%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19,8%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>13,85%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17,56%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>13,85%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>19,8%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>34,78%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42,76%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27,61%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>30,72%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>35,7%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>27,61%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42,76%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>28,17%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32,38%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,54%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>23,89%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>29,06%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>21,54%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>32,38%</t>
         </is>
       </c>
     </row>
@@ -725,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>12,72; 21,24</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13,13; 29,37</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11,14; 16,77</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>10,85; 17,06</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>13,21; 22,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,14; 16,77</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>13,13; 29,37</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>31,15; 38,5</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35,21; 52,58</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23,9; 31,13</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>27,55; 34,67</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>31,94; 39,86</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>23,9; 31,13</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>35,21; 52,58</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>25,42; 30,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26,47; 38,55</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,05; 24,05</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>21,44; 26,49</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>26,01; 32,18</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>19,05; 24,05</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>26,47; 38,55</t>
         </is>
       </c>
     </row>
@@ -797,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>8,94%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,15%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,07%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>15,09%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>14,93%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12,6%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>16,18%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>23,22%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>11,88%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>9,65%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>12,18%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>18,13%</t>
         </is>
       </c>
     </row>
@@ -865,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>6,62; 9,83</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10,57; 15,57</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 9,59</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>7,81; 10,11</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 8,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,84; 9,59</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>10,57; 15,57</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>13,43; 17,0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19,81; 26,47</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14,29; 17,98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>13,46; 16,45</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,58; 15,81</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>14,29; 17,98</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>19,81; 26,47</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>10,49; 12,93</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16,24; 20,29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,02; 13,42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>10,91; 12,82</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>6,92; 11,7</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>11,02; 13,42</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>16,24; 20,29</t>
         </is>
       </c>
     </row>
@@ -937,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>6,29%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,18%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,05%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>8,85%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16,59%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>7,75%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,74%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>16,59%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>7,12%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,77%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -1005,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>4,87; 9,38</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7,68; 13,35</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4,32; 7,94</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>4,74; 8,15</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 9,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 7,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,68; 13,35</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>6,81; 11,25</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 19,57</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7,53; 12,14</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>6,3; 9,45</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6,54; 11,07</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>7,53; 12,14</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>13,52; 19,57</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>6,5; 9,48</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 15,7</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 9,38</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>6,06; 8,32</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>6,6; 9,72</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,32; 9,38</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>11,71; 15,7</t>
         </is>
       </c>
     </row>
@@ -1077,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>8,86%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,01%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,41%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>13,05%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23,82%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,38%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>15,28%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>15,93%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>16,38%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>23,82%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,72%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>12,23%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>12,09%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>12,54%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -1145,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,78; 10,2</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11,25; 15,28</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 9,47</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>7,92; 9,83</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 9,64</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 9,47</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11,25; 15,28</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>16,3; 18,97</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21,57; 26,26</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15,02; 17,83</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>14,28; 16,43</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>11,74; 18,2</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>15,02; 17,83</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>21,57; 26,26</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>12,52; 14,4</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17,09; 20,34</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11,68; 13,49</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>11,51; 13,04</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>9,72; 13,58</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>11,68; 13,49</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>17,09; 20,34</t>
         </is>
       </c>
     </row>
@@ -1296,62 +1296,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -1384,62 +1384,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>237</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>312</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>154</t>
         </is>
       </c>
     </row>
@@ -1452,62 +1452,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>43265</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19511</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>29881</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>11432</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>40001</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>29881</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>19511</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>150326</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>51065</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>75553</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>37308</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>140941</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>75553</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>51065</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>193591</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>70576</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>105434</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>48740</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>180942</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>105434</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>70576</t>
         </is>
       </c>
     </row>
@@ -1520,62 +1520,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>32430; 54150</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12944; 28942</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24043; 36188</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>8953; 14078</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>30090; 50146</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>24043; 36188</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12944; 28942</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>134654; 166412</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>42044; 62790</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65410; 85205</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>33465; 42104</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>126094; 157368</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>65410; 85205</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>42044; 62790</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>174698; 211884</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>57692; 84024</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>93223; 117712</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>43731; 54030</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>161941; 200320</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>93223; 117712</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>57692; 84024</t>
         </is>
       </c>
     </row>
@@ -1592,62 +1592,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>245</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>400</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>645</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>390</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>428</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>294</t>
         </is>
       </c>
     </row>
@@ -1660,62 +1660,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>104606</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46653</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>70246</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>41262</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>95033</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>70246</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>46653</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>191756</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>82255</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>140621</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>66341</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>174597</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>140621</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>82255</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>296362</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>128908</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>210867</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>107603</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>269629</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>210867</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>128908</t>
         </is>
       </c>
     </row>
@@ -1728,62 +1728,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>85272; 126631</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>37736; 55555</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>58989; 82695</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>36063; 46689</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>53148; 125837</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>58989; 82695</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>37736; 55555</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>170700; 216081</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>70193; 93776</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>124214; 156230</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>59829; 73093</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>105030; 219093</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>124214; 156230</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>70193; 93776</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>268424; 330901</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>115484; 144288</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>190838; 232287</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>98834; 116109</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>193439; 327167</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>190838; 232287</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>115484; 144288</t>
         </is>
       </c>
     </row>
@@ -1800,62 +1800,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>154</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>203</t>
         </is>
       </c>
     </row>
@@ -1868,62 +1868,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>34462</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22569</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22433</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>11044</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>33017</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>22433</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>22569</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>43880</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46885</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39351</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>17675</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>38754</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>39351</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>46885</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>78341</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>69454</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>61784</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>28719</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>71771</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>61784</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>69454</t>
         </is>
       </c>
     </row>
@@ -1936,62 +1936,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>24810; 47840</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17243; 29983</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16343; 30078</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>8323; 14302</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>23707; 45839</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>16343; 30078</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17243; 29983</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>33775; 55772</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38225; 55308</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31376; 50629</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>14375; 21537</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>29002; 49085</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>31376; 50629</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>38225; 55308</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>65376; 95324</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>59420; 79659</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>50271; 74610</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>24454; 33593</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>59637; 87792</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>50271; 74610</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>59420; 79659</t>
         </is>
       </c>
     </row>
@@ -2008,62 +2008,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>378</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>733</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>535</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>434</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>1111</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>795</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>826</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>651</t>
         </is>
       </c>
     </row>
@@ -2076,62 +2076,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>182333</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>88733</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>122559</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>63738</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>168050</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>122559</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>88733</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>385961</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>180205</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>255525</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>121324</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>354292</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>255525</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>180205</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>568294</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>268938</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>378084</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>185062</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>522343</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>378084</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>268938</t>
         </is>
       </c>
     </row>
@@ -2144,62 +2144,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>159750; 209320</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>76519; 103897</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>107354; 137986</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>57016; 70733</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>112068; 202048</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>107354; 137986</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>76519; 103897</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>358418; 417176</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>163178; 198599</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>234203; 278089</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>113341; 130388</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>261136; 404852</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>234203; 278089</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>163178; 198599</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>532370; 612109</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>245520; 292202</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>352138; 406751</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>174206; 197349</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>419819; 586837</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>352138; 406751</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>245520; 292202</t>
         </is>
       </c>
     </row>
